--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.400308</v>
+        <v>21.50919633333334</v>
       </c>
       <c r="H2">
-        <v>148.200924</v>
+        <v>64.52758900000001</v>
       </c>
       <c r="I2">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="J2">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.111991333333334</v>
+        <v>2.148311</v>
       </c>
       <c r="N2">
-        <v>9.335974</v>
+        <v>6.444933</v>
       </c>
       <c r="O2">
-        <v>0.1375443917436657</v>
+        <v>0.1910770960367323</v>
       </c>
       <c r="P2">
-        <v>0.1375443917436657</v>
+        <v>0.1910770960367323</v>
       </c>
       <c r="Q2">
-        <v>153.7333303599974</v>
+        <v>46.20844308405967</v>
       </c>
       <c r="R2">
-        <v>1383.599973239976</v>
+        <v>415.875987756537</v>
       </c>
       <c r="S2">
-        <v>0.0416498390248744</v>
+        <v>0.03501914392689685</v>
       </c>
       <c r="T2">
-        <v>0.04164983902487439</v>
+        <v>0.03501914392689683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.400308</v>
+        <v>21.50919633333334</v>
       </c>
       <c r="H3">
-        <v>148.200924</v>
+        <v>64.52758900000001</v>
       </c>
       <c r="I3">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="J3">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.729556333333334</v>
+        <v>4.729556333333333</v>
       </c>
       <c r="N3">
         <v>14.188669</v>
       </c>
       <c r="O3">
-        <v>0.2090378408570124</v>
+        <v>0.4206606444390354</v>
       </c>
       <c r="P3">
-        <v>0.2090378408570124</v>
+        <v>0.4206606444390354</v>
       </c>
       <c r="Q3">
-        <v>233.6415395700174</v>
+        <v>101.7289557432268</v>
       </c>
       <c r="R3">
-        <v>2102.773856130156</v>
+        <v>915.5606016890411</v>
       </c>
       <c r="S3">
-        <v>0.06329878166190539</v>
+        <v>0.07709545496316245</v>
       </c>
       <c r="T3">
-        <v>0.06329878166190539</v>
+        <v>0.07709545496316243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.400308</v>
+        <v>21.50919633333334</v>
       </c>
       <c r="H4">
-        <v>148.200924</v>
+        <v>64.52758900000001</v>
       </c>
       <c r="I4">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="J4">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.783812</v>
+        <v>4.365296</v>
       </c>
       <c r="N4">
-        <v>44.35143600000001</v>
+        <v>13.095888</v>
       </c>
       <c r="O4">
-        <v>0.653417767399322</v>
+        <v>0.3882622595242324</v>
       </c>
       <c r="P4">
-        <v>0.653417767399322</v>
+        <v>0.3882622595242324</v>
       </c>
       <c r="Q4">
-        <v>730.3248662140962</v>
+        <v>93.89400871711467</v>
       </c>
       <c r="R4">
-        <v>6572.923795926866</v>
+        <v>845.0460784540321</v>
       </c>
       <c r="S4">
-        <v>0.1978615375237784</v>
+        <v>0.07115772758576717</v>
       </c>
       <c r="T4">
-        <v>0.1978615375237784</v>
+        <v>0.07115772758576716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>208.692447</v>
       </c>
       <c r="I5">
-        <v>0.4264088994034781</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="J5">
-        <v>0.4264088994034782</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.111991333333334</v>
+        <v>2.148311</v>
       </c>
       <c r="N5">
-        <v>9.335974</v>
+        <v>6.444933</v>
       </c>
       <c r="O5">
-        <v>0.1375443917436657</v>
+        <v>0.1910770960367323</v>
       </c>
       <c r="P5">
-        <v>0.1375443917436657</v>
+        <v>0.1910770960367323</v>
       </c>
       <c r="Q5">
-        <v>216.4830287987087</v>
+        <v>149.445426502339</v>
       </c>
       <c r="R5">
-        <v>1948.347259188378</v>
+        <v>1345.008838521051</v>
       </c>
       <c r="S5">
-        <v>0.05865015270253734</v>
+        <v>0.1132574601222012</v>
       </c>
       <c r="T5">
-        <v>0.05865015270253733</v>
+        <v>0.1132574601222012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>208.692447</v>
       </c>
       <c r="I6">
-        <v>0.4264088994034781</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="J6">
-        <v>0.4264088994034782</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.729556333333334</v>
+        <v>4.729556333333333</v>
       </c>
       <c r="N6">
         <v>14.188669</v>
       </c>
       <c r="O6">
-        <v>0.2090378408570124</v>
+        <v>0.4206606444390354</v>
       </c>
       <c r="P6">
-        <v>0.2090378408570124</v>
+        <v>0.4206606444390354</v>
       </c>
       <c r="Q6">
-        <v>329.0075614758937</v>
+        <v>329.0075614758936</v>
       </c>
       <c r="R6">
         <v>2961.068053283043</v>
       </c>
       <c r="S6">
-        <v>0.08913559565351807</v>
+        <v>0.249338916859898</v>
       </c>
       <c r="T6">
-        <v>0.08913559565351807</v>
+        <v>0.2493389168598979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>208.692447</v>
       </c>
       <c r="I7">
-        <v>0.4264088994034781</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="J7">
-        <v>0.4264088994034782</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.783812</v>
+        <v>4.365296</v>
       </c>
       <c r="N7">
-        <v>44.35143600000001</v>
+        <v>13.095888</v>
       </c>
       <c r="O7">
-        <v>0.653417767399322</v>
+        <v>0.3882622595242324</v>
       </c>
       <c r="P7">
-        <v>0.653417767399322</v>
+        <v>0.3882622595242324</v>
       </c>
       <c r="Q7">
-        <v>1028.423300755988</v>
+        <v>303.668101373104</v>
       </c>
       <c r="R7">
-        <v>9255.809706803893</v>
+        <v>2733.012912357936</v>
       </c>
       <c r="S7">
-        <v>0.2786231510474228</v>
+        <v>0.2301353657089707</v>
       </c>
       <c r="T7">
-        <v>0.2786231510474228</v>
+        <v>0.2301353657089707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.17507666666666</v>
+        <v>26.28859766666667</v>
       </c>
       <c r="H8">
-        <v>132.52523</v>
+        <v>78.86579300000001</v>
       </c>
       <c r="I8">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="J8">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.111991333333334</v>
+        <v>2.148311</v>
       </c>
       <c r="N8">
-        <v>9.335974</v>
+        <v>6.444933</v>
       </c>
       <c r="O8">
-        <v>0.1375443917436657</v>
+        <v>0.1910770960367323</v>
       </c>
       <c r="P8">
-        <v>0.1375443917436657</v>
+        <v>0.1910770960367323</v>
       </c>
       <c r="Q8">
-        <v>137.4724557360022</v>
+        <v>56.47608354187435</v>
       </c>
       <c r="R8">
-        <v>1237.25210162402</v>
+        <v>508.2847518768691</v>
       </c>
       <c r="S8">
-        <v>0.03724440001625397</v>
+        <v>0.04280049198763421</v>
       </c>
       <c r="T8">
-        <v>0.03724440001625397</v>
+        <v>0.04280049198763421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.17507666666666</v>
+        <v>26.28859766666667</v>
       </c>
       <c r="H9">
-        <v>132.52523</v>
+        <v>78.86579300000001</v>
       </c>
       <c r="I9">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="J9">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.729556333333334</v>
+        <v>4.729556333333333</v>
       </c>
       <c r="N9">
         <v>14.188669</v>
       </c>
       <c r="O9">
-        <v>0.2090378408570124</v>
+        <v>0.4206606444390354</v>
       </c>
       <c r="P9">
-        <v>0.2090378408570124</v>
+        <v>0.4206606444390354</v>
       </c>
       <c r="Q9">
-        <v>208.9285136243189</v>
+        <v>124.3334035888352</v>
       </c>
       <c r="R9">
-        <v>1880.35662261887</v>
+        <v>1119.000632299517</v>
       </c>
       <c r="S9">
-        <v>0.05660346354158893</v>
+        <v>0.09422627261597505</v>
       </c>
       <c r="T9">
-        <v>0.05660346354158893</v>
+        <v>0.09422627261597502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.17507666666666</v>
+        <v>26.28859766666667</v>
       </c>
       <c r="H10">
-        <v>132.52523</v>
+        <v>78.86579300000001</v>
       </c>
       <c r="I10">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="J10">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.783812</v>
+        <v>4.365296</v>
       </c>
       <c r="N10">
-        <v>44.35143600000001</v>
+        <v>13.095888</v>
       </c>
       <c r="O10">
-        <v>0.653417767399322</v>
+        <v>0.3882622595242324</v>
       </c>
       <c r="P10">
-        <v>0.653417767399322</v>
+        <v>0.3882622595242324</v>
       </c>
       <c r="Q10">
-        <v>653.0760285255867</v>
+        <v>114.7575102399094</v>
       </c>
       <c r="R10">
-        <v>5877.684256730281</v>
+        <v>1032.817592159184</v>
       </c>
       <c r="S10">
-        <v>0.1769330788281209</v>
+        <v>0.08696916622949455</v>
       </c>
       <c r="T10">
-        <v>0.1769330788281209</v>
+        <v>0.08696916622949454</v>
       </c>
     </row>
   </sheetData>
